--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1297922.633216791</v>
+        <v>1295730.756063618</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.919427</v>
+        <v>28215137.91942701</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5233372.671520709</v>
+        <v>5233372.67152071</v>
       </c>
     </row>
     <row r="11">
@@ -743,55 +743,55 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>36.39025468426208</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18.44731445795352</v>
+        <v>284.8267060859806</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
         <v>211.5956667680352</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1587,7 +1587,7 @@
         <v>275.6136207896234</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>65.72319992546156</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.4851956009209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>139.6419533996152</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>181.7549902943783</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>271.5679831933489</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>54.69045666489551</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>281.1993004076395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H22" t="n">
-        <v>132.7900107487581</v>
+        <v>132.7900107487582</v>
       </c>
       <c r="I22" t="n">
         <v>68.44914407541627</v>
@@ -2374,7 +2374,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427747</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427837</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.0744752901052</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>351.8211017086434</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3477,7 +3477,7 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T37" t="n">
-        <v>240.675072556151</v>
+        <v>240.6750725561512</v>
       </c>
       <c r="U37" t="n">
         <v>275.6136207896234</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77.17833284125339</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>330.5914269716616</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3678,7 +3678,7 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H40" t="n">
-        <v>132.7900107487582</v>
+        <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
         <v>68.44914407541627</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0.2307437563604344</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>75.92013140187684</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>408.4640778393776</v>
       </c>
       <c r="D44" t="n">
-        <v>329.3801445031991</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.9513258013682</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2927798113889</v>
+        <v>163.2927798113888</v>
       </c>
       <c r="H46" t="n">
-        <v>132.7900107487582</v>
+        <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
         <v>68.44914407541627</v>
@@ -4330,28 +4330,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="M2" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="N2" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="O2" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="P2" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="M2" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="O2" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P2" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L3" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M3" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N3" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O3" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P3" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4436,7 +4436,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
         <v>123.5276858794757</v>
@@ -4454,7 +4454,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C4" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="D4" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="E4" t="n">
         <v>60.37753827421391</v>
       </c>
       <c r="F4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K4" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K4" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
         <v>124.3581591730573</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="5">
@@ -4573,16 +4573,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O5" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P5" t="n">
         <v>165.2600121901094</v>
@@ -4631,13 +4631,13 @@
         <v>81.79535956884203</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4646,19 +4646,19 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L6" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O6" t="n">
         <v>124.3581591730573</v>
@@ -4667,7 +4667,7 @@
         <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>102.1098645848476</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="E7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="H7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="F7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="G7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4731,46 +4731,46 @@
         <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N7" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O7" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P7" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="N7" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O7" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P7" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="P8" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="Q8" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P8" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="C9" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
         <v>3.305200243802188</v>
@@ -4880,25 +4880,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K9" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L9" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M9" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P9" t="n">
         <v>124.3581591730573</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="W9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="X9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="Y9" t="n">
         <v>128.5021791757032</v>
-      </c>
-      <c r="U9" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="V9" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="W9" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="X9" t="n">
-        <v>86.76985286506957</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.06303325820834</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M10" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N10" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X10" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.06303325820834</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.798596084987</v>
+        <v>1488.150542486775</v>
       </c>
       <c r="C11" t="n">
-        <v>1616.798596084987</v>
+        <v>1050.008069670198</v>
       </c>
       <c r="D11" t="n">
-        <v>1180.888811259431</v>
+        <v>1050.008069670198</v>
       </c>
       <c r="E11" t="n">
-        <v>1162.255160291802</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F11" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G11" t="n">
         <v>334.4368965582132</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V11" t="n">
-        <v>2429.9401743743</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W11" t="n">
-        <v>2025.084719785333</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.084719785333</v>
+        <v>2322.736236672029</v>
       </c>
       <c r="Y11" t="n">
-        <v>1616.798596084987</v>
+        <v>1914.450112971682</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K12" t="n">
-        <v>673.7775884730678</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L12" t="n">
-        <v>838.5347795517423</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M12" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5205,19 +5205,19 @@
         <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
-        <v>912.5617265081463</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M13" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N13" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O13" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P13" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2036.307417933934</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="C14" t="n">
-        <v>1598.164945117357</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D14" t="n">
-        <v>1162.255160291802</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E14" t="n">
         <v>1162.255160291802</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K14" t="n">
-        <v>1414.072152846029</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L14" t="n">
-        <v>1637.875063222712</v>
+        <v>638.9641820350652</v>
       </c>
       <c r="M14" t="n">
-        <v>1886.898923221</v>
+        <v>887.9880420333532</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.95224962049</v>
+        <v>1269.559320729263</v>
       </c>
       <c r="O14" t="n">
-        <v>2378.903329992016</v>
+        <v>2013.616125720289</v>
       </c>
       <c r="P14" t="n">
-        <v>2594.900065694295</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V14" t="n">
-        <v>2643.673171109689</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W14" t="n">
-        <v>2238.817716520723</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="X14" t="n">
-        <v>2238.817716520723</v>
+        <v>2536.469233407418</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.307417933934</v>
+        <v>2536.469233407418</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K15" t="n">
-        <v>280.4721130373319</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L15" t="n">
-        <v>445.2293041160065</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M15" t="n">
-        <v>637.4931750101592</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N15" t="n">
-        <v>834.8456984678772</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989596</v>
+        <v>940.6829283989588</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004815</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G16" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I16" t="n">
         <v>60.12580242351726</v>
@@ -5445,13 +5445,13 @@
         <v>1053.139058957355</v>
       </c>
       <c r="M16" t="n">
-        <v>1612.343363070976</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N16" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O16" t="n">
-        <v>2661.538565504743</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5469,7 +5469,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U16" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V16" t="n">
         <v>2049.901088400909</v>
@@ -5481,7 +5481,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1389.945013503745</v>
+        <v>1339.26658915599</v>
       </c>
       <c r="C17" t="n">
-        <v>951.8025406871689</v>
+        <v>1198.214110974561</v>
       </c>
       <c r="D17" t="n">
-        <v>951.8025406871689</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="E17" t="n">
-        <v>518.027795845464</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F17" t="n">
-        <v>518.027795845464</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G17" t="n">
         <v>334.4368965582132</v>
@@ -5518,22 +5518,22 @@
         <v>234.7606604020848</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583816</v>
+        <v>569.9241152990533</v>
       </c>
       <c r="L17" t="n">
-        <v>638.9641820350652</v>
+        <v>1313.980920290079</v>
       </c>
       <c r="M17" t="n">
-        <v>887.9880420333532</v>
+        <v>1563.004780288367</v>
       </c>
       <c r="N17" t="n">
-        <v>1269.559320729263</v>
+        <v>1816.058106687858</v>
       </c>
       <c r="O17" t="n">
-        <v>2013.616125720289</v>
+        <v>2560.114911678884</v>
       </c>
       <c r="P17" t="n">
-        <v>2217.555344488757</v>
+        <v>2764.054130447352</v>
       </c>
       <c r="Q17" t="n">
         <v>2917.20399048531</v>
@@ -5542,25 +5542,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="V17" t="n">
-        <v>2643.673171109689</v>
+        <v>2592.994746761934</v>
       </c>
       <c r="W17" t="n">
-        <v>2643.673171109689</v>
+        <v>2592.994746761934</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.530707689</v>
+        <v>2173.852283341245</v>
       </c>
       <c r="Y17" t="n">
-        <v>1816.244583988653</v>
+        <v>1765.566159640898</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H18" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K18" t="n">
-        <v>280.4721130373319</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160065</v>
+        <v>471.2929772764641</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101592</v>
+        <v>663.5568481706168</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283348</v>
       </c>
       <c r="O18" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5652,43 +5652,43 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C19" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G19" t="n">
-        <v>263.3976759832891</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H19" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434335</v>
+        <v>231.5799348298923</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957355</v>
+        <v>744.3689516438144</v>
       </c>
       <c r="M19" t="n">
-        <v>1612.343363070976</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N19" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
-        <v>2661.538565504743</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P19" t="n">
         <v>2777.215599969509</v>
@@ -5712,7 +5712,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W19" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X19" t="n">
         <v>1532.482929320613</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1631.988855816266</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C20" t="n">
-        <v>1631.988855816266</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.07907099071</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E20" t="n">
-        <v>762.3043261490054</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F20" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G20" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H20" t="n">
         <v>60.12580242351726</v>
@@ -5752,52 +5752,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583816</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>638.9641820350652</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>1383.020987026091</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1636.074313425582</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O20" t="n">
-        <v>2013.616125720289</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P20" t="n">
-        <v>2217.555344488757</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U20" t="n">
-        <v>2747.183578271595</v>
+        <v>2696.50515392384</v>
       </c>
       <c r="V20" t="n">
-        <v>2747.183578271595</v>
+        <v>2696.50515392384</v>
       </c>
       <c r="W20" t="n">
-        <v>2342.328123682628</v>
+        <v>2641.262268403743</v>
       </c>
       <c r="X20" t="n">
-        <v>2342.328123682628</v>
+        <v>2222.119804983054</v>
       </c>
       <c r="Y20" t="n">
-        <v>2058.288426301174</v>
+        <v>2222.119804983054</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H21" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>482.5000773542449</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K21" t="n">
-        <v>605.0304380035443</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L21" t="n">
-        <v>769.7876290822189</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M21" t="n">
-        <v>962.0514999763718</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.6829283989596</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F22" t="n">
         <v>428.3398778129751</v>
@@ -5910,25 +5910,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434335</v>
+        <v>399.7727096942247</v>
       </c>
       <c r="L22" t="n">
-        <v>744.3689516438141</v>
+        <v>912.5617265081468</v>
       </c>
       <c r="M22" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621768</v>
       </c>
       <c r="N22" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607997</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,7 +5943,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
@@ -5955,7 +5955,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
         <v>1637.019916722247</v>
@@ -5977,49 +5977,49 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282453</v>
+        <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471219</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>1115.208881076723</v>
       </c>
       <c r="M23" t="n">
-        <v>1956.483341647097</v>
+        <v>2366.51707947841</v>
       </c>
       <c r="N23" t="n">
-        <v>2209.536668046587</v>
+        <v>3617.825277880097</v>
       </c>
       <c r="O23" t="n">
-        <v>3428.667414988419</v>
+        <v>3856.776358251623</v>
       </c>
       <c r="P23" t="n">
-        <v>4267.055923925771</v>
+        <v>4097.901859172715</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169268</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612877</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265121</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U23" t="n">
         <v>4532.272736625463</v>
@@ -6031,7 +6031,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
         <v>2937.371744849287</v>
@@ -6065,31 +6065,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047467</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988996</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6153,7 +6153,7 @@
         <v>581.3400537321738</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3589632325543</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M25" t="n">
         <v>1344.563267346175</v>
@@ -6214,10 +6214,10 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
@@ -6226,31 +6226,31 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1514.304485581983</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M26" t="n">
-        <v>1763.328345580271</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N26" t="n">
-        <v>2016.381671979762</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O26" t="n">
-        <v>3235.512418921593</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P26" t="n">
-        <v>4267.055923925771</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S26" t="n">
         <v>5005.11227626512</v>
@@ -6287,46 +6287,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E27" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L27" t="n">
-        <v>879.5247911404825</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M27" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N27" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6384,10 +6384,10 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>272.5699464186321</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L28" t="n">
         <v>785.3589632325543</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C29" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6463,52 +6463,52 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>456.1512832471219</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>1707.459481648809</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M29" t="n">
-        <v>2958.767680050496</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N29" t="n">
-        <v>4210.075878452182</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O29" t="n">
-        <v>4449.026958823707</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P29" t="n">
-        <v>4652.966177592175</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q29" t="n">
-        <v>4806.116037630133</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V29" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W29" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L30" t="n">
-        <v>879.5247911404825</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M30" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N30" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,22 +6621,22 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>272.5699464186321</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3589632325543</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.563267346175</v>
+        <v>1653.333374659717</v>
       </c>
       <c r="N31" t="n">
-        <v>1884.171378332404</v>
+        <v>2192.941485645946</v>
       </c>
       <c r="O31" t="n">
-        <v>2393.758469779942</v>
+        <v>2702.528577093483</v>
       </c>
       <c r="P31" t="n">
         <v>2818.205611558249</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
@@ -6706,10 +6706,10 @@
         <v>1725.756262658218</v>
       </c>
       <c r="L32" t="n">
-        <v>1949.559173034901</v>
+        <v>2324.624498801546</v>
       </c>
       <c r="M32" t="n">
-        <v>2198.583033033189</v>
+        <v>2573.648358799834</v>
       </c>
       <c r="N32" t="n">
         <v>2826.701685199324</v>
@@ -6727,25 +6727,25 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4621246260721</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L33" t="n">
-        <v>486.2193157047467</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M33" t="n">
-        <v>678.4831865988996</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6867,7 +6867,7 @@
         <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1653.333374659717</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
         <v>1884.171378332404</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1634.221543807287</v>
+        <v>1723.327655118105</v>
       </c>
       <c r="C35" t="n">
-        <v>1196.07907099071</v>
+        <v>1285.185182301529</v>
       </c>
       <c r="D35" t="n">
-        <v>1196.07907099071</v>
+        <v>849.275397475973</v>
       </c>
       <c r="E35" t="n">
-        <v>762.3043261490054</v>
+        <v>415.5006526342682</v>
       </c>
       <c r="F35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,52 +6937,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583816</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>1159.218076649408</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>1903.274881640434</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N35" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O35" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P35" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U35" t="n">
-        <v>2747.183578271595</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="V35" t="n">
-        <v>2747.183578271595</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="W35" t="n">
-        <v>2342.328123682628</v>
+        <v>2550.756242239141</v>
       </c>
       <c r="X35" t="n">
-        <v>1923.185660261939</v>
+        <v>2131.613778818452</v>
       </c>
       <c r="Y35" t="n">
-        <v>1923.185660261939</v>
+        <v>1723.327655118105</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H36" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>482.5000773542449</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K36" t="n">
-        <v>605.0304380035443</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L36" t="n">
-        <v>769.7876290822189</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M36" t="n">
-        <v>962.0514999763718</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.40402343409</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O36" t="n">
-        <v>1339.943026452873</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1484.84149297511</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1581.702280555228</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K37" t="n">
-        <v>540.3500421434335</v>
+        <v>399.7727096942247</v>
       </c>
       <c r="L37" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081468</v>
       </c>
       <c r="M37" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621768</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607997</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1172.530203517586</v>
+        <v>1701.883539222164</v>
       </c>
       <c r="C38" t="n">
-        <v>734.3877307010093</v>
+        <v>1263.741066405587</v>
       </c>
       <c r="D38" t="n">
-        <v>734.3877307010093</v>
+        <v>827.8312815800318</v>
       </c>
       <c r="E38" t="n">
-        <v>734.3877307010093</v>
+        <v>394.056536738327</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G38" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H38" t="n">
         <v>60.12580242351726</v>
@@ -7177,49 +7177,49 @@
         <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>850.4159591112995</v>
+        <v>886.0120835572822</v>
       </c>
       <c r="L38" t="n">
-        <v>1074.218869487983</v>
+        <v>1109.814993933966</v>
       </c>
       <c r="M38" t="n">
-        <v>1323.242729486271</v>
+        <v>1358.838853932254</v>
       </c>
       <c r="N38" t="n">
-        <v>1576.296055885761</v>
+        <v>1611.892180331744</v>
       </c>
       <c r="O38" t="n">
-        <v>1815.247136257286</v>
+        <v>1850.843260703269</v>
       </c>
       <c r="P38" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q38" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>2955.611696828107</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T38" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U38" t="n">
-        <v>2482.77215718845</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="V38" t="n">
-        <v>2482.77215718845</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="W38" t="n">
-        <v>2077.916702599484</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="X38" t="n">
-        <v>1658.774239178795</v>
+        <v>2536.469233407418</v>
       </c>
       <c r="Y38" t="n">
-        <v>1250.488115478448</v>
+        <v>2128.183109707072</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G39" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H39" t="n">
         <v>60.12580242351726</v>
@@ -7256,25 +7256,25 @@
         <v>157.9417523880325</v>
       </c>
       <c r="K39" t="n">
-        <v>556.6048103787278</v>
+        <v>280.4721130373319</v>
       </c>
       <c r="L39" t="n">
-        <v>721.3620014574024</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M39" t="n">
-        <v>913.6258723515552</v>
+        <v>637.4931750101592</v>
       </c>
       <c r="N39" t="n">
-        <v>1110.978395809273</v>
+        <v>834.8456984678772</v>
       </c>
       <c r="O39" t="n">
-        <v>1291.517398828056</v>
+        <v>1015.38470148666</v>
       </c>
       <c r="P39" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q39" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C40" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D40" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E40" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F40" t="n">
         <v>428.3398778129751</v>
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>399.7727096942242</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>912.5617265081463</v>
+        <v>744.3689516438144</v>
       </c>
       <c r="M40" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O40" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P40" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7365,7 +7365,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U40" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V40" t="n">
         <v>2049.901088400909</v>
@@ -7377,7 +7377,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y40" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1795.820234498146</v>
+        <v>934.1780600656494</v>
       </c>
       <c r="C41" t="n">
-        <v>1357.67776168157</v>
+        <v>496.0355872490728</v>
       </c>
       <c r="D41" t="n">
-        <v>921.7679768560143</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="E41" t="n">
-        <v>487.9932320143095</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F41" t="n">
         <v>60.12580242351726</v>
@@ -7420,43 +7420,43 @@
         <v>638.9641820350652</v>
       </c>
       <c r="M41" t="n">
-        <v>887.9880420333532</v>
+        <v>1383.020987026091</v>
       </c>
       <c r="N41" t="n">
-        <v>1141.041368432844</v>
+        <v>2127.077792017117</v>
       </c>
       <c r="O41" t="n">
-        <v>1379.992448804369</v>
+        <v>2390.960846925827</v>
       </c>
       <c r="P41" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q41" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>2955.611696828107</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T41" t="n">
-        <v>2955.611696828107</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U41" t="n">
-        <v>2696.505153923839</v>
+        <v>2955.378622326733</v>
       </c>
       <c r="V41" t="n">
-        <v>2696.505153923839</v>
+        <v>2592.76167226056</v>
       </c>
       <c r="W41" t="n">
-        <v>2291.649699334873</v>
+        <v>2187.906217671593</v>
       </c>
       <c r="X41" t="n">
-        <v>1872.507235914184</v>
+        <v>1768.763754250904</v>
       </c>
       <c r="Y41" t="n">
-        <v>1795.820234498146</v>
+        <v>1360.477630550557</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G42" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H42" t="n">
         <v>60.12580242351726</v>
@@ -7490,28 +7490,28 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>434.0744497294285</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K42" t="n">
-        <v>556.6048103787278</v>
+        <v>673.7775884730678</v>
       </c>
       <c r="L42" t="n">
-        <v>721.3620014574024</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M42" t="n">
-        <v>913.6258723515552</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P42" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q42" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7569,22 +7569,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L43" t="n">
-        <v>966.5593737926657</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M43" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N43" t="n">
         <v>1843.181366743664</v>
       </c>
       <c r="O43" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P43" t="n">
         <v>2777.215599969509</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1928.737121803405</v>
+        <v>1146.977708316542</v>
       </c>
       <c r="C44" t="n">
-        <v>1928.737121803405</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.029905133506</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E44" t="n">
-        <v>1162.255160291802</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F44" t="n">
         <v>734.3877307010093</v>
@@ -7648,52 +7648,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>978.8174653931108</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L44" t="n">
-        <v>1313.980920290079</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M44" t="n">
-        <v>1563.004780288367</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>1816.058106687857</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O44" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P44" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R44" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>2955.611696828107</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T44" t="n">
-        <v>2741.878700092718</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U44" t="n">
-        <v>2741.878700092718</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.878700092718</v>
+        <v>2379.261750026545</v>
       </c>
       <c r="W44" t="n">
-        <v>2337.023245503751</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="X44" t="n">
-        <v>2337.023245503751</v>
+        <v>1555.263832016889</v>
       </c>
       <c r="Y44" t="n">
-        <v>1928.737121803405</v>
+        <v>1146.977708316542</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G45" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H45" t="n">
         <v>60.12580242351726</v>
@@ -7727,28 +7727,28 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J45" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K45" t="n">
-        <v>306.5357861977895</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L45" t="n">
-        <v>471.2929772764641</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M45" t="n">
-        <v>663.5568481706168</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N45" t="n">
-        <v>860.9093716283348</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O45" t="n">
-        <v>1041.448374647118</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P45" t="n">
-        <v>1186.346841169355</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q45" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7806,13 +7806,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>157.6701056818313</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K46" t="n">
-        <v>231.5799348298918</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L46" t="n">
-        <v>744.3689516438141</v>
+        <v>744.3689516438144</v>
       </c>
       <c r="M46" t="n">
         <v>1303.573255757435</v>
@@ -7821,7 +7821,7 @@
         <v>1843.181366743664</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P46" t="n">
         <v>2777.215599969509</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>13.31876740878122</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R8" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P8" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K12" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>280.4369185037897</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>129.8161134307263</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>510.2078026459606</v>
       </c>
       <c r="P14" t="n">
-        <v>12.17931003415242</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>39.1280673301012</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>156.3261046875471</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>525.5089844589319</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>129.8161134307263</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>510.2078026459606</v>
+        <v>510.2078026459608</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877201</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>39.1280673301012</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>139.9906383062444</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>69.44156613083169</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309259</v>
       </c>
       <c r="L22" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1012.408422629696</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>640.8578688574585</v>
+        <v>37.56190116426751</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>378.8538644107514</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>835.9639254906156</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>252.59497392014</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>53.09902264877149</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.884129318185</v>
+        <v>378.8538644107514</v>
       </c>
       <c r="M29" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>162.2106386789801</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.59497392014</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>53.09902264877149</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>378.8538644107523</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>378.8538644107525</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N34" t="n">
-        <v>134.837066509195</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5089844589319</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.5006295630646</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.44156613083146</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309259</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>152.236121078153</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>35.95568125856835</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>29.51002495954117</v>
+        <v>545.5733194167251</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>278.9219165064605</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>397.2782580158946</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>222.9907144309254</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216363</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>495.96310968842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.18381266382266</v>
       </c>
       <c r="P41" t="n">
-        <v>469.1612244069329</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>252.5949739201398</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>43.11462354451101</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,10 +11226,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781535</v>
       </c>
       <c r="N43" t="n">
-        <v>222.2912939482758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>112.485398505338</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.9513154295739</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>53.09902264877152</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216363</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>410.9896829353343</v>
+        <v>144.6102913073071</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>356.3133748545971</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.5956667680352</v>
@@ -23554,16 +23554,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.7180668624221</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>294.1190946887957</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>214.1963355069899</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.5956667680352</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5956667680352</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>346.1164433781815</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>123.0039620557036</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>135.9620994899535</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>71.7676535862409</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.8582419388053</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>92.99732832322269</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
@@ -25684,10 +25684,10 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.2847337188648</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>328.2831310614662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25867,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>25.29697024903334</v>
       </c>
       <c r="D44" t="n">
-        <v>102.1705424741008</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579164.8770076622</v>
+        <v>579164.8770076621</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579164.8770076622</v>
+        <v>579164.8770076621</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>384068.3734187986</v>
+        <v>384068.3734187987</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>384068.3734187987</v>
+        <v>384068.3734187986</v>
       </c>
     </row>
     <row r="15">
@@ -26325,19 +26325,19 @@
         <v>340081.7877915238</v>
       </c>
       <c r="F2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.7877915239</v>
       </c>
       <c r="G2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.7877915239</v>
       </c>
       <c r="H2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.7877915239</v>
       </c>
       <c r="I2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="J2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="K2" t="n">
         <v>482532.5879013676</v>
@@ -26346,16 +26346,16 @@
         <v>482532.5879013676</v>
       </c>
       <c r="M2" t="n">
-        <v>340081.787791524</v>
+        <v>340081.7877915239</v>
       </c>
       <c r="N2" t="n">
         <v>340081.7877915239</v>
       </c>
       <c r="O2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.787791524</v>
       </c>
       <c r="P2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.7877915239</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836707</v>
+        <v>498352.8259836705</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961176</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.82265736714</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>63447.66966717358</v>
       </c>
       <c r="F4" t="n">
-        <v>63447.66966717357</v>
+        <v>63447.66966717356</v>
       </c>
       <c r="G4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717359</v>
       </c>
       <c r="H4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717358</v>
       </c>
       <c r="I4" t="n">
-        <v>124249.5450329029</v>
+        <v>124249.545032903</v>
       </c>
       <c r="J4" t="n">
         <v>124249.5450329029</v>
@@ -26450,7 +26450,7 @@
         <v>124249.5450329029</v>
       </c>
       <c r="M4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717358</v>
       </c>
       <c r="N4" t="n">
         <v>63447.66966717358</v>
@@ -26459,7 +26459,7 @@
         <v>63447.66966717358</v>
       </c>
       <c r="P4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717358</v>
       </c>
     </row>
     <row r="5">
@@ -26490,13 +26490,13 @@
         <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716029</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
         <v>84616.25585716027</v>
@@ -26524,25 +26524,25 @@
         <v>130900.8289500906</v>
       </c>
       <c r="C6" t="n">
-        <v>144746.436716387</v>
+        <v>144746.4367163871</v>
       </c>
       <c r="D6" t="n">
         <v>144746.4367163871</v>
       </c>
       <c r="E6" t="n">
-        <v>-275182.5549090381</v>
+        <v>-275578.2515760097</v>
       </c>
       <c r="F6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
       <c r="G6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
       <c r="H6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
       <c r="I6" t="n">
-        <v>137415.4761151869</v>
+        <v>137415.4761151868</v>
       </c>
       <c r="J6" t="n">
         <v>262856.9643539372</v>
@@ -26554,16 +26554,16 @@
         <v>273666.7870113045</v>
       </c>
       <c r="M6" t="n">
-        <v>173857.1898542167</v>
+        <v>173461.4931872448</v>
       </c>
       <c r="N6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
       <c r="O6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
       <c r="P6" t="n">
-        <v>223170.2710746326</v>
+        <v>222774.5744076609</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="G4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26822,16 +26822,16 @@
         <v>1263.947675153219</v>
       </c>
       <c r="M4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="N4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="O4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="P4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592534</v>
+        <v>512.3751448592535</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>159.7533718952811</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>123.316540963949</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27605,7 +27605,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27703,16 +27703,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>56.78895584205372</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>4.928040977687559</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27794,7 +27794,7 @@
         <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,10 +27839,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
         <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27985,7 +27985,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>92.48660254844231</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
         <v>174.5731815300314</v>
@@ -27997,10 +27997,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>134.4458397173452</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>148.7487506218503</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L6" t="n">
-        <v>13.31876740878122</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,10 +35099,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R8" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P8" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J12" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K12" t="n">
-        <v>521.0462990757932</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299743</v>
@@ -35503,7 +35503,7 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961988</v>
@@ -35512,7 +35512,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>375.9713983481948</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M13" t="n">
         <v>564.8528324380011</v>
@@ -35588,7 +35588,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
         <v>7.689198871994783</v>
@@ -35646,31 +35646,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>751.5725302939657</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055459</v>
+        <v>385.4255340362722</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480051</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="P14" t="n">
-        <v>218.1785209113932</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R14" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J15" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>579.6408873277969</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961988</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>517.9687038524465</v>
       </c>
       <c r="M16" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N16" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P16" t="n">
-        <v>116.8454893583489</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q16" t="n">
         <v>223.6992063869488</v>
@@ -35886,25 +35886,25 @@
         <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>338.5489443403721</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350339</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N17" t="n">
-        <v>385.4255340362722</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="P17" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
         <v>89.98599059651769</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J18" t="n">
-        <v>72.4145740411025</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
         <v>166.4214051299744</v>
@@ -35974,19 +35974,19 @@
         <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>596.624241306519</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P18" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939966</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749456</v>
+        <v>127.755415727621</v>
       </c>
       <c r="L19" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
@@ -36056,10 +36056,10 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P19" t="n">
-        <v>116.8454893583489</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
         <v>223.6992063869488</v>
@@ -36120,31 +36120,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
-        <v>751.5725302939658</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N20" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>381.3553659542495</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q20" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J21" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M21" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>268.7875494214559</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
         <v>146.3620873961988</v>
@@ -36223,7 +36223,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L22" t="n">
-        <v>206.079706566041</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M22" t="n">
         <v>564.8528324380011</v>
@@ -36299,7 +36299,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
         <v>7.689198871994783</v>
@@ -36357,31 +36357,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
+        <v>226.0635458350339</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1263.94767515322</v>
+      </c>
+      <c r="N23" t="n">
         <v>1263.947675153219</v>
       </c>
-      <c r="M23" t="n">
-        <v>251.5392525235231</v>
-      </c>
-      <c r="N23" t="n">
-        <v>255.6094206055461</v>
-      </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>846.8570797346993</v>
+        <v>243.5611120415078</v>
       </c>
       <c r="Q23" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J24" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M24" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>596.624241306519</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36460,7 +36460,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>352.1901855749456</v>
       </c>
       <c r="L25" t="n">
-        <v>206.0797065660408</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N25" t="n">
         <v>545.0586979658876</v>
@@ -36594,31 +36594,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
         <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457853</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>1041.963136367856</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q26" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836501</v>
       </c>
       <c r="J27" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612425</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>563.6996631458692</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M27" t="n">
         <v>194.205930196114</v>
@@ -36697,7 +36697,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>127.7554157276205</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M28" t="n">
         <v>564.8528324380011</v>
@@ -36831,31 +36831,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L29" t="n">
-        <v>1263.947675153219</v>
+        <v>604.9174102457853</v>
       </c>
       <c r="M29" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772403</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R29" t="n">
-        <v>252.1966292754978</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836501</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612425</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>563.6996631458692</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
@@ -36934,7 +36934,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>127.7554157276205</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M31" t="n">
         <v>564.8528324380011</v>
@@ -37004,10 +37004,10 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P31" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q31" t="n">
         <v>223.6992063869488</v>
@@ -37074,13 +37074,13 @@
         <v>1025.000912337853</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457862</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>634.4632850162984</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
         <v>241.3647276480051</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M33" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>596.624241306519</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
@@ -37171,7 +37171,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,10 +37235,10 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N34" t="n">
-        <v>233.1697006794818</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
         <v>514.7344358055936</v>
@@ -37305,31 +37305,31 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>751.5725302939658</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N35" t="n">
-        <v>422.1100501686108</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M36" t="n">
         <v>194.205930196114</v>
@@ -37408,7 +37408,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>117.029919045081</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
-        <v>252.9638351515955</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
         <v>545.0586979658876</v>
@@ -37484,7 +37484,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
         <v>7.689198871994783</v>
@@ -37545,10 +37545,10 @@
         <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>182.222839652825</v>
+        <v>218.1785209113934</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235231</v>
@@ -37560,10 +37560,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>235.509235836782</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="Q38" t="n">
-        <v>706.7158040369218</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204422</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J39" t="n">
         <v>72.4145740411025</v>
       </c>
       <c r="K39" t="n">
-        <v>402.6899575663589</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
         <v>199.3459832906242</v>
@@ -37639,13 +37639,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961988</v>
+        <v>543.6403454120934</v>
       </c>
       <c r="Q39" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660414</v>
       </c>
       <c r="M40" t="n">
         <v>564.8528324380011</v>
@@ -37721,7 +37721,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
         <v>7.689198871994783</v>
@@ -37788,19 +37788,19 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235233</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055459</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480051</v>
+        <v>266.5485403118278</v>
       </c>
       <c r="P41" t="n">
-        <v>675.1604352841737</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>706.7158040369218</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37858,10 +37858,10 @@
         <v>52.71635840836502</v>
       </c>
       <c r="J42" t="n">
-        <v>325.0095479612423</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>166.8826646044093</v>
       </c>
       <c r="L42" t="n">
         <v>166.4214051299743</v>
@@ -37873,7 +37873,7 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P42" t="n">
         <v>146.3620873961988</v>
@@ -37882,7 +37882,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205077</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
         <v>352.1901855749455</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M43" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151596</v>
       </c>
       <c r="N43" t="n">
-        <v>320.6239281185626</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
         <v>514.7344358055936</v>
@@ -38016,13 +38016,13 @@
         <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K44" t="n">
-        <v>751.5725302939657</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L44" t="n">
-        <v>338.548944340372</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
         <v>251.5392525235231</v>
@@ -38031,16 +38031,16 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>52.71635840836502</v>
       </c>
       <c r="J45" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299744</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M45" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.7904948034306</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.52959925082229</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884902</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L46" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660414</v>
       </c>
       <c r="M46" t="n">
         <v>564.8528324380011</v>
